--- a/static/xlsx/social_security_merchant_template.xlsx
+++ b/static/xlsx/social_security_merchant_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\银信数据科技\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\管理后台\vue-admin\static\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>河源市源城区永和路南边新风路西边万隆一品花园A2栋006号</t>
+  </si>
+  <si>
+    <t>明文秘钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,22 +459,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="35.5" customWidth="1"/>
-    <col min="10" max="10" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="8" max="8" width="28.625" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="11" max="11" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,34 +495,37 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>21579</v>
       </c>
@@ -536,30 +544,31 @@
       <c r="F2" s="2">
         <v>47540131</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
         <v>441600811807</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>13827877158</v>
       </c>
       <c r="J2" s="2">
         <v>13827877158</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2">
+        <v>13827877158</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>20130910</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>0</v>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
